--- a/Monrado/Data/CSV/Cutframes.xlsx
+++ b/Monrado/Data/CSV/Cutframes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="FilesName.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Mac:Users:Ofix:Desktop:FilesName.csv" thousands=" " tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="Mac:Users:Ofix:Desktop:FilesName.csv" thousands=" " tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>indexList</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -785,23 +788,23 @@
       <c r="A8" s="1">
         <v>1606</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
+      <c r="B8" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.68541666666666667</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1291,23 +1294,23 @@
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
+      <c r="B30" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.65277777777777779</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1315,91 +1318,91 @@
         <v>23</v>
       </c>
       <c r="B31" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="C31" s="2">
-        <v>0.22916666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D31" s="2">
-        <v>0.26111111111111113</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="E31" s="2">
-        <v>0.68472222222222223</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
+      <c r="B32" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.7416666666666667</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
+      <c r="B33" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.63194444444444442</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
+      <c r="B34" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.64097222222222217</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7">

--- a/Monrado/Data/CSV/Cutframes.xlsx
+++ b/Monrado/Data/CSV/Cutframes.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
-  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="0" windowWidth="11000" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cutframes.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="FilesName" localSheetId="0">Cutframes.csv!$A$1:$A$40</definedName>
+    <definedName name="FilesName" localSheetId="0">Cutframes.csv!$A$1:$A$35</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>indexList</t>
   </si>
@@ -156,9 +156,6 @@
     <t>ParentSex</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>PELI020</t>
   </si>
 </sst>
 </file>
@@ -214,8 +214,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -240,7 +242,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -249,6 +251,7 @@
     <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -257,6 +260,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -273,8 +277,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G40" totalsRowShown="0">
-  <autoFilter ref="A1:G40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0">
+  <autoFilter ref="A1:G35"/>
   <tableColumns count="7">
     <tableColumn id="2" name="indexList" dataDxfId="0"/>
     <tableColumn id="3" name="CutBefore"/>
@@ -610,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -648,65 +652,65 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
+        <v>1606</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.68541666666666667</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.6972222222222223</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.18472222222222223</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.22847222222222222</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -716,43 +720,43 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.67013888888888884</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>206</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.64444444444444449</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -762,20 +766,20 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>1106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.63055555555555554</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -785,158 +789,158 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>1606</v>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>7.6388888888888886E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>0.22916666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D8" s="2">
-        <v>0.26111111111111113</v>
+        <v>0.23055555555555554</v>
       </c>
       <c r="E8" s="2">
-        <v>0.68541666666666667</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>6.2499999999999995E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="C9" s="2">
-        <v>0.22152777777777777</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="D9" s="2">
         <v>0.24722222222222223</v>
       </c>
       <c r="E9" s="2">
-        <v>0.6972222222222223</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.3888888888888888E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>0.18472222222222223</v>
+        <v>0.22361111111111109</v>
       </c>
       <c r="D10" s="2">
-        <v>0.22847222222222222</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="E10" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.22430555555555556</v>
       </c>
       <c r="D11" s="2">
-        <v>0.25486111111111109</v>
+        <v>0.25625000000000003</v>
       </c>
       <c r="E11" s="2">
-        <v>0.67013888888888884</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="D12" s="2">
-        <v>0.23611111111111113</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="E12" s="2">
-        <v>0.64444444444444449</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C13" s="2">
-        <v>0.20555555555555557</v>
+        <v>0.22361111111111109</v>
       </c>
       <c r="D13" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="E13" s="2">
-        <v>0.63055555555555554</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="C14" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.22083333333333333</v>
       </c>
       <c r="D14" s="2">
-        <v>0.23055555555555554</v>
+        <v>0.24097222222222223</v>
       </c>
       <c r="E14" s="2">
-        <v>0.63402777777777775</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F14" t="s">
         <v>40</v>
@@ -947,145 +951,145 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C15" s="2">
         <v>0.21388888888888891</v>
       </c>
       <c r="D15" s="2">
-        <v>0.24722222222222223</v>
+        <v>0.23124999999999998</v>
       </c>
       <c r="E15" s="2">
-        <v>0.63750000000000007</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.22361111111111109</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="D16" s="2">
-        <v>0.24166666666666667</v>
+        <v>0.25138888888888888</v>
       </c>
       <c r="E16" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1.8749999999999999E-2</v>
+        <v>1.3194444444444444E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>0.22430555555555556</v>
+        <v>0.23194444444444443</v>
       </c>
       <c r="D17" s="2">
-        <v>0.25625000000000003</v>
+        <v>0.25416666666666665</v>
       </c>
       <c r="E17" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>0.22777777777777777</v>
+        <v>0.21041666666666667</v>
       </c>
       <c r="D18" s="2">
-        <v>0.24444444444444446</v>
+        <v>0.21805555555555556</v>
       </c>
       <c r="E18" s="2">
-        <v>0.68402777777777779</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>0.22361111111111109</v>
+        <v>0.19652777777777777</v>
       </c>
       <c r="D19" s="2">
-        <v>0.24930555555555556</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="E19" s="2">
-        <v>0.6694444444444444</v>
+        <v>0.61319444444444449</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>6.2499999999999995E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>0.22083333333333333</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="D20" s="2">
-        <v>0.24097222222222223</v>
+        <v>0.22847222222222222</v>
       </c>
       <c r="E20" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1094,13 +1098,13 @@
         <v>0.21388888888888891</v>
       </c>
       <c r="D21" s="2">
-        <v>0.23124999999999998</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="E21" s="2">
-        <v>0.64236111111111105</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -1108,114 +1112,114 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="C22" s="2">
-        <v>0.21944444444444444</v>
+        <v>0.20902777777777778</v>
       </c>
       <c r="D22" s="2">
-        <v>0.25138888888888888</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="E22" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="C23" s="2">
-        <v>0.23194444444444443</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D23" s="2">
-        <v>0.25416666666666665</v>
+        <v>0.27361111111111108</v>
       </c>
       <c r="E23" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="F23" t="s">
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>0.21041666666666667</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="D24" s="2">
-        <v>0.21805555555555556</v>
+        <v>0.32569444444444445</v>
       </c>
       <c r="E24" s="2">
-        <v>0.62986111111111109</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="C25" s="2">
-        <v>0.19652777777777777</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D25" s="2">
-        <v>0.20972222222222223</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="E25" s="2">
-        <v>0.61319444444444449</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="F25" t="s">
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="C26" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.24236111111111111</v>
       </c>
       <c r="D26" s="2">
-        <v>0.22847222222222222</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E26" s="2">
-        <v>0.63958333333333328</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -1223,324 +1227,209 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.22708333333333333</v>
       </c>
       <c r="D27" s="2">
-        <v>0.23333333333333331</v>
+        <v>0.26319444444444445</v>
       </c>
       <c r="E27" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>4.1666666666666666E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C28" s="2">
-        <v>0.20902777777777778</v>
+        <v>0.20347222222222219</v>
       </c>
       <c r="D28" s="2">
-        <v>0.2388888888888889</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="E28" s="2">
-        <v>0.62777777777777777</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
-        <v>1.3194444444444444E-2</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="C29" s="2">
-        <v>0.23958333333333334</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D29" s="2">
-        <v>0.27361111111111108</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="E29" s="2">
-        <v>0.66249999999999998</v>
+        <v>0.64097222222222217</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>41</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>1.3888888888888888E-2</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C30" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.20069444444444443</v>
       </c>
       <c r="D30" s="2">
-        <v>0.32569444444444445</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="E30" s="2">
-        <v>0.65277777777777779</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C31" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="D31" s="2">
-        <v>0.22638888888888889</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="E31" s="2">
-        <v>0.63680555555555551</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C32" s="2">
-        <v>0.24236111111111111</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="D32" s="2">
-        <v>0.26666666666666666</v>
+        <v>0.21597222222222223</v>
       </c>
       <c r="E32" s="2">
-        <v>0.7416666666666667</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="C33" s="2">
-        <v>0.20347222222222219</v>
+        <v>0.20902777777777778</v>
       </c>
       <c r="D33" s="2">
-        <v>0.22013888888888888</v>
+        <v>0.23263888888888887</v>
       </c>
       <c r="E33" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="C34" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.2298611111111111</v>
       </c>
       <c r="D34" s="2">
-        <v>0.24166666666666667</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="E34" s="2">
-        <v>0.64097222222222217</v>
+        <v>0.66180555555555554</v>
       </c>
       <c r="F34" t="s">
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="C35" s="2">
-        <v>0.20069444444444443</v>
+        <v>0.20347222222222219</v>
       </c>
       <c r="D35" s="2">
-        <v>0.22152777777777777</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E35" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.20972222222222223</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.22013888888888888</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.64861111111111114</v>
-      </c>
-      <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.20972222222222223</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.21597222222222223</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.63750000000000007</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="2">
-        <v>6.2499999999999995E-3</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.20902777777777778</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.23263888888888887</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.63402777777777775</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2">
-        <v>6.2499999999999995E-3</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.2298611111111111</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.24930555555555556</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.66180555555555554</v>
-      </c>
-      <c r="F39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.20347222222222219</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.62916666666666665</v>
-      </c>
-      <c r="F40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Monrado/Data/CSV/Cutframes.xlsx
+++ b/Monrado/Data/CSV/Cutframes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="0" windowWidth="11000" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="5040" yWindow="0" windowWidth="20360" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cutframes.csv" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
     <t>indexList</t>
   </si>
@@ -45,9 +45,6 @@
     <t>BAJE059</t>
   </si>
   <si>
-    <t>BALE050</t>
-  </si>
-  <si>
     <t>BALU062</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>BEAM031</t>
   </si>
   <si>
-    <t>BICA</t>
-  </si>
-  <si>
     <t>BRLO041</t>
   </si>
   <si>
@@ -102,70 +96,73 @@
     <t>MAEL048</t>
   </si>
   <si>
+    <t>MIPH043</t>
+  </si>
+  <si>
+    <t>MOSA065</t>
+  </si>
+  <si>
+    <t>RAEM049</t>
+  </si>
+  <si>
+    <t>SEEM035</t>
+  </si>
+  <si>
+    <t>SHAN042</t>
+  </si>
+  <si>
+    <t>SOGA061</t>
+  </si>
+  <si>
+    <t>TIUG032</t>
+  </si>
+  <si>
+    <t>VINO</t>
+  </si>
+  <si>
+    <t>CutBefore</t>
+  </si>
+  <si>
+    <t>CutMiddle1</t>
+  </si>
+  <si>
+    <t>CutMiddle2</t>
+  </si>
+  <si>
+    <t>CutFinal</t>
+  </si>
+  <si>
+    <t>ChildSex</t>
+  </si>
+  <si>
+    <t>ParentSex</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>PELI020</t>
+  </si>
+  <si>
+    <t>NAMA045</t>
+  </si>
+  <si>
+    <t>NUMA027</t>
+  </si>
+  <si>
+    <t>OGGA034</t>
+  </si>
+  <si>
+    <t>PAMA029</t>
+  </si>
+  <si>
+    <t>RAMA054</t>
+  </si>
+  <si>
     <t>MAME20</t>
-  </si>
-  <si>
-    <t>MAPA029</t>
-  </si>
-  <si>
-    <t>MIPH043</t>
-  </si>
-  <si>
-    <t>MOSA065</t>
-  </si>
-  <si>
-    <t>RAEM049</t>
-  </si>
-  <si>
-    <t>RAKA008</t>
-  </si>
-  <si>
-    <t>RIEM0</t>
-  </si>
-  <si>
-    <t>SEEM035</t>
-  </si>
-  <si>
-    <t>SHAN042</t>
-  </si>
-  <si>
-    <t>SOGA061</t>
-  </si>
-  <si>
-    <t>TIUG032</t>
-  </si>
-  <si>
-    <t>VINO</t>
-  </si>
-  <si>
-    <t>CutBefore</t>
-  </si>
-  <si>
-    <t>CutMiddle1</t>
-  </si>
-  <si>
-    <t>CutMiddle2</t>
-  </si>
-  <si>
-    <t>CutFinal</t>
-  </si>
-  <si>
-    <t>ChildSex</t>
-  </si>
-  <si>
-    <t>ParentSex</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>PELI020</t>
   </si>
 </sst>
 </file>
@@ -214,53 +211,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -616,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -632,22 +604,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -667,10 +639,10 @@
         <v>0.68541666666666667</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -690,10 +662,10 @@
         <v>0.6972222222222223</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -701,22 +673,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>1.3888888888888888E-2</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.18472222222222223</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D4" s="2">
-        <v>0.22847222222222222</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="E4" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -724,22 +696,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C5" s="2">
         <v>0.22222222222222221</v>
       </c>
       <c r="D5" s="2">
-        <v>0.25486111111111109</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="E5" s="2">
-        <v>0.67013888888888884</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -747,22 +719,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.20555555555555557</v>
       </c>
       <c r="D6" s="2">
-        <v>0.23611111111111113</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="E6" s="2">
-        <v>0.64444444444444449</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -770,22 +742,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20555555555555557</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="D7" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.24722222222222223</v>
       </c>
       <c r="E7" s="2">
-        <v>0.63055555555555554</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -796,19 +768,19 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.22361111111111109</v>
       </c>
       <c r="D8" s="2">
-        <v>0.23055555555555554</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="E8" s="2">
-        <v>0.63402777777777775</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -816,22 +788,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.22430555555555556</v>
       </c>
       <c r="D9" s="2">
-        <v>0.24722222222222223</v>
+        <v>0.25625000000000003</v>
       </c>
       <c r="E9" s="2">
-        <v>0.63750000000000007</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -839,22 +811,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>0.22361111111111109</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="D10" s="2">
-        <v>0.24166666666666667</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="E10" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -862,22 +834,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.8749999999999999E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>0.22430555555555556</v>
+        <v>0.22361111111111109</v>
       </c>
       <c r="D11" s="2">
-        <v>0.25625000000000003</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="E11" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -885,22 +857,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>0.22777777777777777</v>
+        <v>0.22083333333333333</v>
       </c>
       <c r="D12" s="2">
-        <v>0.24444444444444446</v>
+        <v>0.24097222222222223</v>
       </c>
       <c r="E12" s="2">
-        <v>0.68402777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -911,19 +883,19 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C13" s="2">
-        <v>0.22361111111111109</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="D13" s="2">
-        <v>0.24930555555555556</v>
+        <v>0.23124999999999998</v>
       </c>
       <c r="E13" s="2">
-        <v>0.6694444444444444</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -931,22 +903,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>6.2499999999999995E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C14" s="2">
-        <v>0.22083333333333333</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="D14" s="2">
-        <v>0.24097222222222223</v>
+        <v>0.25138888888888888</v>
       </c>
       <c r="E14" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -954,22 +926,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>1.3194444444444444E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.23194444444444443</v>
       </c>
       <c r="D15" s="2">
-        <v>0.23124999999999998</v>
+        <v>0.25416666666666665</v>
       </c>
       <c r="E15" s="2">
-        <v>0.64236111111111105</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -977,22 +949,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.21944444444444444</v>
+        <v>0.21041666666666667</v>
       </c>
       <c r="D16" s="2">
-        <v>0.25138888888888888</v>
+        <v>0.21805555555555556</v>
       </c>
       <c r="E16" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1000,22 +972,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1.3194444444444444E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C17" s="2">
-        <v>0.23194444444444443</v>
+        <v>0.19652777777777777</v>
       </c>
       <c r="D17" s="2">
-        <v>0.25416666666666665</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="E17" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.61319444444444449</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1023,22 +995,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>0.21041666666666667</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="D18" s="2">
-        <v>0.21805555555555556</v>
+        <v>0.22847222222222222</v>
       </c>
       <c r="E18" s="2">
-        <v>0.62986111111111109</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1049,19 +1021,19 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>0.19652777777777777</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="D19" s="2">
-        <v>0.20972222222222223</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="E19" s="2">
-        <v>0.61319444444444449</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1069,257 +1041,257 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.20902777777777778</v>
       </c>
       <c r="D20" s="2">
-        <v>0.22847222222222222</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="E20" s="2">
-        <v>0.63958333333333328</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>1.8055555555555557E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="D21" s="2">
-        <v>0.23333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E21" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>4.1666666666666666E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="C22" s="2">
-        <v>0.20902777777777778</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D22" s="2">
-        <v>0.2388888888888889</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="E22" s="2">
-        <v>0.62777777777777777</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>1.3194444444444444E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="C23" s="2">
-        <v>0.23958333333333334</v>
+        <v>0.24236111111111111</v>
       </c>
       <c r="D23" s="2">
-        <v>0.27361111111111108</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E23" s="2">
-        <v>0.66249999999999998</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>1.3888888888888888E-2</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C24" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.20486111111111113</v>
       </c>
       <c r="D24" s="2">
-        <v>0.32569444444444445</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="E24" s="2">
-        <v>0.65277777777777779</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C25" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="D25" s="2">
-        <v>0.22638888888888889</v>
+        <v>0.23194444444444443</v>
       </c>
       <c r="E25" s="2">
-        <v>0.63680555555555551</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C26" s="2">
-        <v>0.24236111111111111</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="D26" s="2">
-        <v>0.26666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E26" s="2">
-        <v>0.7416666666666667</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>0.22708333333333333</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="D27" s="2">
-        <v>0.26319444444444445</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="E27" s="2">
-        <v>0.63402777777777775</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>0.20347222222222219</v>
+        <v>0.22708333333333333</v>
       </c>
       <c r="D28" s="2">
-        <v>0.22013888888888888</v>
+        <v>0.26319444444444445</v>
       </c>
       <c r="E28" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2">
-        <v>6.2499999999999995E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C29" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.20347222222222219</v>
       </c>
       <c r="D29" s="2">
-        <v>0.24166666666666667</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="E29" s="2">
-        <v>0.64097222222222217</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C30" s="2">
-        <v>0.20069444444444443</v>
+        <v>0.21736111111111112</v>
       </c>
       <c r="D30" s="2">
-        <v>0.22152777777777777</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="E30" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
         <v>5.5555555555555558E-3</v>
@@ -1334,15 +1306,15 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>5.5555555555555558E-3</v>
@@ -1357,15 +1329,15 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2">
         <v>6.2499999999999995E-3</v>
@@ -1380,15 +1352,15 @@
         <v>0.63402777777777775</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2">
         <v>6.2499999999999995E-3</v>
@@ -1403,15 +1375,15 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2">
         <v>4.8611111111111112E-3</v>
@@ -1426,10 +1398,10 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Monrado/Data/CSV/Cutframes.xlsx
+++ b/Monrado/Data/CSV/Cutframes.xlsx
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
-    <t>indexList</t>
-  </si>
-  <si>
     <t>BAJE059</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>MAME20</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
 </sst>
 </file>
@@ -252,7 +252,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0">
   <autoFilter ref="A1:G35"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="indexList" dataDxfId="0"/>
+    <tableColumn id="2" name="family" dataDxfId="0"/>
     <tableColumn id="3" name="CutBefore"/>
     <tableColumn id="4" name="CutMiddle1"/>
     <tableColumn id="5" name="CutMiddle2"/>
@@ -588,9 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -601,25 +599,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -639,15 +637,15 @@
         <v>0.68541666666666667</v>
       </c>
       <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>6.2499999999999995E-3</v>
@@ -662,15 +660,15 @@
         <v>0.6972222222222223</v>
       </c>
       <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>5.5555555555555558E-3</v>
@@ -685,15 +683,15 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>6.9444444444444441E-3</v>
@@ -708,15 +706,15 @@
         <v>0.64444444444444449</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>5.5555555555555558E-3</v>
@@ -731,15 +729,15 @@
         <v>0.63055555555555554</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>8.3333333333333332E-3</v>
@@ -754,15 +752,15 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>6.9444444444444441E-3</v>
@@ -777,15 +775,15 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>1.8749999999999999E-2</v>
@@ -800,15 +798,15 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>8.3333333333333332E-3</v>
@@ -823,15 +821,15 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>6.9444444444444441E-3</v>
@@ -846,15 +844,15 @@
         <v>0.6694444444444444</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>6.2499999999999995E-3</v>
@@ -869,15 +867,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>6.9444444444444441E-3</v>
@@ -892,15 +890,15 @@
         <v>0.64236111111111105</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>5.5555555555555558E-3</v>
@@ -915,15 +913,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>1.3194444444444444E-2</v>
@@ -938,15 +936,15 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>6.9444444444444441E-3</v>
@@ -961,15 +959,15 @@
         <v>0.62986111111111109</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>6.9444444444444441E-3</v>
@@ -984,15 +982,15 @@
         <v>0.61319444444444449</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>5.5555555555555558E-3</v>
@@ -1007,15 +1005,15 @@
         <v>0.63958333333333328</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1030,15 +1028,15 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
         <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>4.1666666666666666E-3</v>
@@ -1053,15 +1051,15 @@
         <v>0.62777777777777777</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2">
         <v>1.8055555555555557E-2</v>
@@ -1076,15 +1074,15 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>4.8611111111111112E-3</v>
@@ -1099,15 +1097,15 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>8.3333333333333332E-3</v>
@@ -1122,15 +1120,15 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
         <v>5.5555555555555558E-3</v>
@@ -1145,15 +1143,15 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1168,15 +1166,15 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1191,15 +1189,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
         <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
         <v>1.3888888888888888E-2</v>
@@ -1214,15 +1212,15 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>1.3888888888888888E-2</v>
@@ -1237,15 +1235,15 @@
         <v>0.63402777777777775</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1260,15 +1258,15 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1283,15 +1281,15 @@
         <v>0.64236111111111105</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2">
         <v>5.5555555555555558E-3</v>
@@ -1306,15 +1304,15 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2">
         <v>5.5555555555555558E-3</v>
@@ -1329,15 +1327,15 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2">
         <v>6.2499999999999995E-3</v>
@@ -1352,15 +1350,15 @@
         <v>0.63402777777777775</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2">
         <v>6.2499999999999995E-3</v>
@@ -1375,15 +1373,15 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2">
         <v>4.8611111111111112E-3</v>
@@ -1398,10 +1396,10 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
